--- a/excel_files/5.2.1.1a.xlsx
+++ b/excel_files/5.2.1.1a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -237,6 +237,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,7 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -579,8 +584,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -620,8 +626,11 @@
       <c r="M4" s="10">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -640,8 +649,9 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -681,8 +691,11 @@
       <c r="M6" s="3">
         <v>1764</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="14">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -719,8 +732,11 @@
       <c r="M7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+      <c r="N7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -760,8 +776,11 @@
       <c r="M8" s="3">
         <v>539</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="14">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -801,8 +820,11 @@
       <c r="M9" s="3">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -841,6 +863,9 @@
       </c>
       <c r="M10" s="4">
         <v>939</v>
+      </c>
+      <c r="N10" s="15">
+        <v>798</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/5.2.1.1a.xlsx
+++ b/excel_files/5.2.1.1a.xlsx
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -548,7 +548,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -570,7 +570,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -585,8 +585,9 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -629,8 +630,11 @@
       <c r="N4" s="13">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -650,8 +654,9 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -694,8 +699,11 @@
       <c r="N6" s="14">
         <v>1713</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="14">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -735,8 +743,11 @@
       <c r="N7" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -779,8 +790,11 @@
       <c r="N8" s="14">
         <v>379</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="14">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -823,8 +837,11 @@
       <c r="N9" s="14">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -866,6 +883,9 @@
       </c>
       <c r="N10" s="15">
         <v>798</v>
+      </c>
+      <c r="O10" s="15">
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/5.2.1.1a.xlsx
+++ b/excel_files/5.2.1.1a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>в отделы судебно-медицинской экспертизы</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -240,6 +243,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -533,7 +539,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -548,7 +554,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -570,7 +576,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -586,8 +592,9 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -633,8 +640,11 @@
       <c r="O4" s="13">
         <v>2021</v>
       </c>
+      <c r="P4" s="13">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -655,8 +665,9 @@
       <c r="L5" s="7"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -702,8 +713,11 @@
       <c r="O6" s="14">
         <v>1860</v>
       </c>
+      <c r="P6" s="14">
+        <v>1373</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -746,8 +760,11 @@
       <c r="O7" s="14">
         <v>1</v>
       </c>
+      <c r="P7" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -793,8 +810,11 @@
       <c r="O8" s="14">
         <v>510</v>
       </c>
+      <c r="P8" s="14">
+        <v>117</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -840,8 +860,11 @@
       <c r="O9" s="14">
         <v>178</v>
       </c>
+      <c r="P9" s="14">
+        <v>154</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -886,6 +909,9 @@
       </c>
       <c r="O10" s="15">
         <v>821</v>
+      </c>
+      <c r="P10" s="15">
+        <v>885</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/5.2.1.1a.xlsx
+++ b/excel_files/5.2.1.1a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>в отделы судебно-медицинской экспертизы</t>
   </si>
@@ -526,11 +526,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -539,7 +537,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -554,7 +552,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -576,7 +574,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -593,8 +591,9 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -643,8 +642,11 @@
       <c r="P4" s="13">
         <v>2022</v>
       </c>
+      <c r="Q4" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -666,8 +668,9 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -716,8 +719,11 @@
       <c r="P6" s="14">
         <v>1373</v>
       </c>
+      <c r="Q6" s="14">
+        <v>1209</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -763,8 +769,11 @@
       <c r="P7" s="16" t="s">
         <v>27</v>
       </c>
+      <c r="Q7" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -813,8 +822,11 @@
       <c r="P8" s="14">
         <v>117</v>
       </c>
+      <c r="Q8" s="14">
+        <v>373</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -863,8 +875,11 @@
       <c r="P9" s="14">
         <v>154</v>
       </c>
+      <c r="Q9" s="14">
+        <v>115</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -912,6 +927,9 @@
       </c>
       <c r="P10" s="15">
         <v>885</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
